--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_1.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998368927142063</v>
+        <v>0.9999677876212659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992197992124122</v>
+        <v>0.9990494307526769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999877241889283</v>
+        <v>0.9999888358807061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998993027333949</v>
+        <v>0.9998824936202573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998974830331375</v>
+        <v>0.999922033716554</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001522534917060599</v>
+        <v>3.006884158826517e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007282831883566366</v>
+        <v>0.0008873146672084865</v>
       </c>
       <c r="I2" t="n">
-        <v>9.065014049009014e-05</v>
+        <v>4.493596090546105e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>7.32776997240857e-05</v>
+        <v>0.000183435078767762</v>
       </c>
       <c r="K2" t="n">
-        <v>8.196392010708792e-05</v>
+        <v>9.396512656160362e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001383414069116694</v>
+        <v>0.0003165187055416331</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01233910416951166</v>
+        <v>0.005483506322442344</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000134985339967</v>
+        <v>1.000026658520332</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01286440537947466</v>
+        <v>0.005716950539011652</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5799274352146</v>
+        <v>126.8240421710829</v>
       </c>
       <c r="Q2" t="n">
-        <v>188.1803461532292</v>
+        <v>191.4244608890975</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998590812674522</v>
+        <v>0.9999677889401923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992155733786858</v>
+        <v>0.9990494260338494</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998659804830338</v>
+        <v>0.9999888319595843</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999250152801608</v>
+        <v>0.9998824936202573</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999039839470593</v>
+        <v>0.9999220369084091</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001315414512159326</v>
+        <v>3.006761042838545e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007322278186475591</v>
+        <v>0.0008873190720268576</v>
       </c>
       <c r="I3" t="n">
-        <v>9.896607214327508e-05</v>
+        <v>4.495174355445187e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>5.456660314151255e-05</v>
+        <v>0.000183435078767762</v>
       </c>
       <c r="K3" t="n">
-        <v>7.676633764239381e-05</v>
+        <v>9.39612797311524e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001284635584940567</v>
+        <v>0.0003165093843285006</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01146915215767637</v>
+        <v>0.005483394061015992</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00011662239935</v>
+        <v>1.000026657428806</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01195741770944662</v>
+        <v>0.005716833498383965</v>
       </c>
       <c r="P3" t="n">
-        <v>123.8723770752904</v>
+        <v>126.8241240621715</v>
       </c>
       <c r="Q3" t="n">
-        <v>188.4727957933051</v>
+        <v>191.4245427801861</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998741055015175</v>
+        <v>0.9999677870696692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992056416760162</v>
+        <v>0.999049421575983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998474219675111</v>
+        <v>0.9999888319595843</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999368989289482</v>
+        <v>0.9998824964859445</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999008205858001</v>
+        <v>0.9999220323806214</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000117516988203679</v>
+        <v>3.006935647966393e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007414986271382985</v>
+        <v>0.0008873232332495172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001126705192839898</v>
+        <v>4.495174355445187e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>4.59188366545301e-05</v>
+        <v>0.0001834306052442142</v>
       </c>
       <c r="K4" t="n">
-        <v>7.929549449759194e-05</v>
+        <v>9.39667366302809e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001202377591777974</v>
+        <v>0.0003165046427379979</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01084052527342098</v>
+        <v>0.005483553271343676</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000104188550468</v>
+        <v>1.000026658976826</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01130202887729143</v>
+        <v>0.005716999486624911</v>
       </c>
       <c r="P4" t="n">
-        <v>124.0978553087479</v>
+        <v>126.8240079238713</v>
       </c>
       <c r="Q4" t="n">
-        <v>188.6982740267626</v>
+        <v>191.4244266418859</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999882857330837</v>
+        <v>0.9999677884953352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991875113621872</v>
+        <v>0.9990494169946792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998189409818847</v>
+        <v>0.9999888319595843</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999355230418117</v>
+        <v>0.9998824964859445</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998870427118475</v>
+        <v>0.9999220358310529</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001093475396947189</v>
+        <v>3.006802568296425e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007584224792688782</v>
+        <v>0.0008873275096954942</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001337021670769295</v>
+        <v>4.495174355445187e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>4.69200738067296e-05</v>
+        <v>0.0001834306052442142</v>
       </c>
       <c r="K5" t="n">
-        <v>9.031112044182952e-05</v>
+        <v>9.39625781631437e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001156631540685546</v>
+        <v>0.0003164921711242232</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01045693739556276</v>
+        <v>0.005483431925625069</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000096945657238</v>
+        <v>1.000026657796964</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01090211086933641</v>
+        <v>0.005716872974967842</v>
       </c>
       <c r="P5" t="n">
-        <v>124.2419586209141</v>
+        <v>126.8240964409734</v>
       </c>
       <c r="Q5" t="n">
-        <v>188.8423773389287</v>
+        <v>191.424515158988</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998873486973866</v>
+        <v>0.9999677876998071</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991596175006479</v>
+        <v>0.9990494143272425</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9997771818595977</v>
+        <v>0.9999888319595843</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999208920049003</v>
+        <v>0.9998824939114226</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998611003872228</v>
+        <v>0.9999220339051231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001051550461688963</v>
+        <v>3.006876827352862e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007844601746168597</v>
+        <v>0.0008873299996305141</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001645389914622514</v>
+        <v>4.495174355445187e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>5.756712278415905e-05</v>
+        <v>0.0001834346242399484</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001110524151564183</v>
+        <v>9.396489929769677e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001120164403929084</v>
+        <v>0.0003164934829014081</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0102545134535431</v>
+        <v>0.005483499637414834</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000093228664232</v>
+        <v>1.000026658455332</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01069106932102964</v>
+        <v>0.005716943569388681</v>
       </c>
       <c r="P6" t="n">
-        <v>124.3201493335462</v>
+        <v>126.8240470475478</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.9205680515608</v>
+        <v>191.4244657655624</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999888847865428</v>
+        <v>0.999967786072303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991238334083888</v>
+        <v>0.9990494108587337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997198242056444</v>
+        <v>0.9999888355716682</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99989563991526</v>
+        <v>0.9998824869200974</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998231193986333</v>
+        <v>0.9999220299656962</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001037556386081511</v>
+        <v>3.007028747717519e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008178630540005758</v>
+        <v>0.0008873332373313357</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002068944770482963</v>
+        <v>4.493720479374537e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>7.594314335007586e-05</v>
+        <v>0.0001834455381518922</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001414188101991861</v>
+        <v>9.396964710307805e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001100662941427043</v>
+        <v>0.0003164929414608707</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01018605117835911</v>
+        <v>0.005483638160671726</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000091987973439</v>
+        <v>1.000026659802232</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01061969246505463</v>
+        <v>0.005717087989867401</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3469441045998</v>
+        <v>126.8239460014886</v>
       </c>
       <c r="Q7" t="n">
-        <v>188.9473628226144</v>
+        <v>191.4243647195032</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998884035235666</v>
+        <v>0.9999677877162991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990855967490546</v>
+        <v>0.9990494080302794</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9996573475193254</v>
+        <v>0.9999888386478289</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998635888386428</v>
+        <v>0.9998824922478289</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997796816277584</v>
+        <v>0.9999220339445619</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001041704122314612</v>
+        <v>3.006875287896979e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008535552970936628</v>
+        <v>0.0008873358775691759</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002530300876331459</v>
+        <v>4.492482314165945e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>9.926680691485176e-05</v>
+        <v>0.0001834372212176178</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000176147988115647</v>
+        <v>9.396485176589186e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001090697505059271</v>
+        <v>0.0003164755257103437</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01020639075439801</v>
+        <v>0.005483498233698064</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000092355704635</v>
+        <v>1.000026658441683</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01064089793895424</v>
+        <v>0.005716942105912781</v>
       </c>
       <c r="P8" t="n">
-        <v>124.3389648413607</v>
+        <v>126.8240480715048</v>
       </c>
       <c r="Q8" t="n">
-        <v>188.9393835593753</v>
+        <v>191.4244667895194</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998861386885088</v>
+        <v>0.9999677877162991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990478579496606</v>
+        <v>0.9990494079602094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9995945028613414</v>
+        <v>0.9999888386478289</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998297571535143</v>
+        <v>0.9998824922478289</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997352624391741</v>
+        <v>0.9999220339445619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001062845363430152</v>
+        <v>3.006875287896979e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008887828097862546</v>
+        <v>0.0008873359429765512</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002994374251362907</v>
+        <v>4.492482314165945e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000123886224577158</v>
+        <v>0.0001834372212176178</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002116618248567244</v>
+        <v>9.396485176589186e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001076922884742283</v>
+        <v>0.0003164755257103437</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01030943918663936</v>
+        <v>0.005483498233698064</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000094230050889</v>
+        <v>1.000026658441683</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01074833335629576</v>
+        <v>0.005716942105912781</v>
       </c>
       <c r="P9" t="n">
-        <v>124.2987815100842</v>
+        <v>126.8240480715048</v>
       </c>
       <c r="Q9" t="n">
-        <v>188.8992002280989</v>
+        <v>191.4244667895194</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998821059143139</v>
+        <v>0.9999677879431799</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999011623352591</v>
+        <v>0.9990494059685493</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9995321947200313</v>
+        <v>0.9999888354832841</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997951308867817</v>
+        <v>0.9998824918485671</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996907271775174</v>
+        <v>0.9999220344935311</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001100489540356676</v>
+        <v>3.006854109567239e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009226062156356635</v>
+        <v>0.0008873378021036993</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003454485744644526</v>
+        <v>4.493756054263931e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001490838616306331</v>
+        <v>0.0001834378444909898</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002472684638365543</v>
+        <v>9.396419014710613e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001061962004086008</v>
+        <v>0.0003164726808258888</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01049042201418359</v>
+        <v>0.005483478922697924</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000097567519189</v>
+        <v>1.00002665825392</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01093702099749464</v>
+        <v>0.005716921972803385</v>
       </c>
       <c r="P10" t="n">
-        <v>124.2291705089669</v>
+        <v>126.8240621581578</v>
       </c>
       <c r="Q10" t="n">
-        <v>188.8295892269815</v>
+        <v>191.4244808761724</v>
       </c>
     </row>
     <row r="11">
@@ -1017,822 +1017,822 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998770402283192</v>
+        <v>0.9999677865448685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989779924714258</v>
+        <v>0.9990493944492767</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9994735258167309</v>
+        <v>0.9999888316505463</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997613107848859</v>
+        <v>0.999882489673234</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9996482450398969</v>
+        <v>0.999922031108714</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001147775495537874</v>
+        <v>3.006984635795279e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009539991669782822</v>
+        <v>0.0008873485548391647</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003887723458674916</v>
+        <v>4.495298744273618e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001736948501401476</v>
+        <v>0.0001834412403270388</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002812335980038196</v>
+        <v>9.39682695356562e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001045023015465716</v>
+        <v>0.0003164678271806083</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01071342846869234</v>
+        <v>0.005483597939122889</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000101759811046</v>
+        <v>1.000026659411143</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01116952129845883</v>
+        <v>0.005717046056003959</v>
       </c>
       <c r="P11" t="n">
-        <v>124.1450293091632</v>
+        <v>126.8239753409127</v>
       </c>
       <c r="Q11" t="n">
-        <v>188.7454480271778</v>
+        <v>191.4243940589273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_10</t>
+          <t>model_36_1_22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998713693721337</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989475105567064</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9994193873210045</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999728838380504</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9996084655946488</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001200710448811594</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009824526963674767</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004287506594375482</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000197325115169663</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003130378873036056</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001027163390055558</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01095769341062066</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000106452933406</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01142418510466318</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P12" t="n">
-        <v>124.0548538993857</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.6552726174003</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_11</t>
+          <t>model_36_1_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999864948484586</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989192318531001</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9993673983659876</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9996970822679141</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9995700081190423</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001260646615626483</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001008849624892372</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0004671416549382797</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002204341325364467</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003437852411768464</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001010379236538039</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01122785204581216</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000111766771377</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01170584495226025</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P13" t="n">
-        <v>123.9574311912861</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q13" t="n">
-        <v>188.5578499093008</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_12</t>
+          <t>model_36_1_20</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998585965799716</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988940100403932</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999321092862686</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999666619406285</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9995347572160944</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001319938857037277</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00103239307994457</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005013357326675164</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002426020473413673</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003719688900044419</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009990527867558526</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01148885919940391</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000117023520024</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01197796372073969</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P14" t="n">
-        <v>123.8655099137541</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.4659286317687</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_13</t>
+          <t>model_36_1_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999851997940128</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988706713883421</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9992774126958727</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9996367789746089</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999501005293444</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001381534263508961</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001054178687185893</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005335911432071984</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002643170180224501</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003989540806148243</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009951133228852215</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01175386856957726</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000122484463342</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01225425508844635</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P15" t="n">
-        <v>123.7742914104621</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.3747101284767</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_14</t>
+          <t>model_36_1_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998459658213744</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988502625748732</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9992403546472702</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996089853842364</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9994712430137709</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001437841444279892</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00107322941871565</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0005609564821854532</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002845424962130044</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0004227494891992288</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0009977640401801517</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0119910026448162</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000127476561621</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01250148445220342</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P16" t="n">
-        <v>123.6943947600724</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q16" t="n">
-        <v>188.294813478087</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_15</t>
+          <t>model_36_1_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998400224226611</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988314183366954</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9992057801315369</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9995827009597208</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9994433144551961</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001493320462417936</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001090819687888196</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005864878681793717</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003036697499310999</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0004450788090552357</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001000526288892609</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01222014919065204</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000132395236418</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01274038624089423</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P17" t="n">
-        <v>123.6186764663422</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.2190951843568</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_16</t>
+          <t>model_36_1_12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999834518322459</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988144565987938</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9991752766880322</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9995584146572947</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9994181752749006</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001544698821784439</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00110665272568514</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0006090129903320259</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0003213429642753388</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0004651779773036824</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001002165480707146</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01242859131914972</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000136950353827</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01295770218233675</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P18" t="n">
-        <v>123.5510228359712</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.1514415539858</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_17</t>
+          <t>model_36_1_15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998292023879299</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9987988678899816</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9991472291838401</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9995352381593213</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9993946771984831</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001594320737187543</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001121204101096078</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0006297245358304092</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003382085706259612</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004839650573071894</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001003901505434847</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01262664142671179</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00014134974792</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01316418369299798</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P19" t="n">
-        <v>123.4877851930993</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q19" t="n">
-        <v>188.0882039111139</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_18</t>
+          <t>model_36_1_14</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998243048648959</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9987846751188664</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9991223358141463</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9995138950140505</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9993734663243489</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001640036964945478</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001134452429941459</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0006481069257746123</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003537400407745458</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0005009234832745791</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001004835899843116</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01280639279791729</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000145402870431</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01335158745221233</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P20" t="n">
-        <v>123.4312431815864</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.031661899601</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_19</t>
+          <t>model_36_1_13</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999819928688976</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9987720499356988</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9991007762463127</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9994947665927102</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9993548047955854</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001680886646238703</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001146237484246875</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0006640274856595087</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003676598497468264</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0005158436677031676</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001005042265684234</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01296490125777556</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000149024533261</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01351684394536451</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P21" t="n">
-        <v>123.3820379043241</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q21" t="n">
-        <v>187.9824566223387</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_20</t>
+          <t>model_36_1_23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999815980849297</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9987607353612126</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9990817820702695</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9994775800794663</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9993382117276266</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001717737996741253</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001156799142877374</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006780536442305574</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003801665264347446</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0005291100853326511</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001004764727546755</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01310625040483072</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000152291710927</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01366421061824288</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P22" t="n">
-        <v>123.3386641297027</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q22" t="n">
-        <v>187.9390828477173</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_21</t>
+          <t>model_36_1_11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998125055143808</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9987506456588039</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9990655702172107</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9994622360723491</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9993237420641716</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001750178722687601</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00116621743718917</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0006900252096840077</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003913324059467369</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0005406788078153723</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001003856359223989</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01322943204634122</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000155167850168</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01379263635725364</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P23" t="n">
-        <v>123.3012449240107</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q23" t="n">
-        <v>187.9016636420253</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_22</t>
+          <t>model_36_1_10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998092762352344</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9987413829098252</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9990507319106366</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9994481963892919</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993105032976639</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001780322626029593</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001174863806773077</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0007009824862965763</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0004015491249696238</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0005512634089166507</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001002961222528385</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01334287310150851</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000157840357047</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01391090683299476</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P24" t="n">
-        <v>123.2670915470353</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q24" t="n">
-        <v>187.86751026505</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_36_1_23</t>
+          <t>model_36_1_16</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998064074651186</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9987330887807137</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990378017577003</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9994356955606476</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9992988400531452</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001807101335816093</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001182606012228502</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0007105306959699977</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0004106460150699243</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K25" t="n">
-        <v>0.000560588355519961</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001001762681161423</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01344284692993301</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000160214511626</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01401513675426964</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P25" t="n">
-        <v>123.2372325647003</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q25" t="n">
-        <v>187.837651282715</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998038749494987</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9987257262743432</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9990266742734327</v>
+        <v>0.999988831341226</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9994245505188187</v>
+        <v>0.9998824870985664</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9992886292977488</v>
+        <v>0.9999220293896142</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001830741257481909</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00118947858874865</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0007187477335756349</v>
+        <v>4.495423246788887e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0004187562950812706</v>
+        <v>0.0001834452595501466</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0005687520143284528</v>
+        <v>9.397034139846776e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001000361577592786</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01353048874757268</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000162310386622</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0141065096655298</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P26" t="n">
-        <v>123.2112388568074</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.811657574822</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
   </sheetData>
